--- a/data/trans_bre/P5_1-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_1-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,51</t>
+          <t>-6,85</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,38</t>
+          <t>-8,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-12,76%</t>
+          <t>-18,64%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-19,39%</t>
+          <t>-23,62%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 3,1</t>
+          <t>-17,26; 3,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 0,1</t>
+          <t>-19,79; 1,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-31,45; 10,42</t>
+          <t>-40,76; 9,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-37,53; 0,38</t>
+          <t>-43,92; 5,52</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,46</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,66%</t>
+          <t>-1,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,37%</t>
+          <t>-3,32%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 7,4</t>
+          <t>-12,91; 10,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 6,48</t>
+          <t>-14,58; 9,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 14,15</t>
+          <t>-18,4; 20,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 11,9</t>
+          <t>-20,97; 17,44</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>-6,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-8,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>-9,59%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,01%</t>
+          <t>-11,75%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 29,36</t>
+          <t>-36,22; 37,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 27,28</t>
+          <t>-39,16; 38,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 63,42</t>
+          <t>-39,85; 85,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 58,43</t>
+          <t>-41,72; 87,54</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,22</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,96%</t>
+          <t>-9,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-12,25%</t>
+          <t>-12,57%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 2,39</t>
+          <t>-13,64; 3,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 0,43</t>
+          <t>-15,22; 2,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 5,19</t>
+          <t>-24,32; 7,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,52; 0,9</t>
+          <t>-26,7; 4,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_1-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_1-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-6,85</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-8,99</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-18,64%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-23,62%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-6.848861438415166</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-11.16973416811499</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.1863617936704795</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.2791263411102338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-17,26; 3,21</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-19,79; 1,3</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-40,76; 9,45</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-43,92; 5,52</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-17.26347380587192</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-21.37081944577917</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.4075684037335413</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.4694818430394503</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.211784362678865</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.01500658861879899</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.0945093452709089</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>-0.008664892140886253</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,81</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,05</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,33%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-3,32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-12,91; 10,84</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-14,58; 9,44</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-18,4; 20,14</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-20,97; 17,44</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.8105410143388836</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.6255339078497402</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.01326952019130833</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.01041921010444762</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-6,84</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-8,55</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-9,59%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-11,75%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-12.90568485356744</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-12.67799625377151</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1839762755168963</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.183554589357388</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-36,22; 37,54</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-39,16; 38,87</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-39,85; 85,85</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-41,72; 87,54</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.83911530069044</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>12.79538919545344</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.2013983667290224</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.2466584331247473</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-5,01</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-6,49</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-9,93%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-12,57%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-6.843504463023731</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-6.37565235311317</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.09590433990731673</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.08796830456131442</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-13,64; 3,39</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-15,22; 2,25</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-24,32; 7,27</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-26,7; 4,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-36.22047495633042</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-37.45110290008422</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.3985439439433406</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.3942144387280241</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>37.54096870201637</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>40.28729300462304</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.858509896317261</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.9873716006100233</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-5.009652014300508</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-6.410556002120826</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.09929154542861823</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.1239464608441298</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-13.64257186627992</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-14.96979772345367</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2431868139856976</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.262013028680645</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.385921978810968</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.017067956591991</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.07271711732220458</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.0435498672958702</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
